--- a/tables/mean_difference_crude.xlsx
+++ b/tables/mean_difference_crude.xlsx
@@ -410,19 +410,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -433,19 +433,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.45</v>
+        <v>-1.72</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.218</v>
+        <v>0.31</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -456,21 +456,21 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.99</v>
+        <v>1.88</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>-2.49</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.49</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I4" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_crude.xlsx
+++ b/tables/mean_difference_crude.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">md</t>
   </si>
   <si>
@@ -39,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">md_ci</t>
@@ -401,76 +413,100 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.94</v>
+      </c>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>55</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48</v>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="D3"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.31</v>
+        <v>-3.95</v>
       </c>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" t="n">
-        <v>32</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26</v>
+      <c r="G3" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="n">
+        <v>84</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.38</v>
-      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>-1.63</v>
       </c>
       <c r="I4" t="n">
-        <v>63</v>
+        <v>-0.63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_crude.xlsx
+++ b/tables/mean_difference_crude.xlsx
@@ -434,19 +434,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1.69</v>
+        <v>0.77</v>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>1.76</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -463,19 +463,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.95</v>
+        <v>-2.81</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.236</v>
+        <v>0.33</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K3" t="n">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -492,21 +492,21 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.13</v>
+        <v>4.87</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>-1.63</v>
+        <v>4.37</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.63</v>
+        <v>5.37</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_crude.xlsx
+++ b/tables/mean_difference_crude.xlsx
@@ -434,19 +434,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.77</v>
+        <v>4.62</v>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>2.8</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -463,19 +463,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.81</v>
+        <v>-4.12</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.564</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -492,21 +492,21 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>4.87</v>
+        <v>-3.32</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>4.37</v>
+        <v>-3.82</v>
       </c>
       <c r="I4" t="n">
-        <v>5.37</v>
+        <v>-2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K4" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
